--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/国家资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/国家资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,347 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.03253</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.46723</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08058</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.03999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.92804</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0.18188</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.00212</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.08429</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.09229999999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0355</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.61763</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.06754</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.00094</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.7790899999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.01346</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.32357</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.07808</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.03183</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>11.97553</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.42166</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.03325</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.16757</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.08159</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2.1267</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.08169</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.15885</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.36412</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.44615</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.36164</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.2322</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.10869</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.30145</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.03139</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9873</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02648</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.71821</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.12324</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06343</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.01017</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.01346</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.24384</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.18347</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.10145</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01809</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.04576</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00383</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08117000000000001</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.18992</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.07681</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.4076</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.27261</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.02357</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.22676</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>9.670629999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.50346</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.10374</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.19334</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.22467</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.22997</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.76547</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.64535</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.53077</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.19836</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0827</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.23382</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.00657</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.16589</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0.9114</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01965</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.09836</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.08834</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.03078</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.21672</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.17621</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.09467</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.12161</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.10772</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.2114</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.62785</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.40424</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.45748</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.06319</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>14.25255</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.95923</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.35071</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.22419</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.37235</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2.56435</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.27996</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.06038</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.26885</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.19593</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
